--- a/task4-paragraph2vec-text-alignment/results_report.xlsx
+++ b/task4-paragraph2vec-text-alignment/results_report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
   <si>
     <t>Method Name</t>
   </si>
@@ -23,7 +23,7 @@
     <t>Plagdet Score</t>
   </si>
   <si>
-    <t>0.22028393551696282</t>
+    <t>Recall</t>
   </si>
   <si>
     <t>Precision</t>
@@ -80,9 +80,6 @@
     <t>Threshold 0.999, Encoding UTF-8, vec_size 30, Fixed src-susp reading false</t>
   </si>
   <si>
-    <t>0.47763185309061196</t>
-  </si>
-  <si>
     <t>0.000644118914821531</t>
   </si>
   <si>
@@ -99,6 +96,9 @@
   </si>
   <si>
     <t>Threshold 0.85, Encoding UTF-8, vec_size 30, Fixed src-susp reading false</t>
+  </si>
+  <si>
+    <t>Paragraph 2 Vec (best)</t>
   </si>
   <si>
     <t>0.4927368862090018</t>
@@ -145,11 +145,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="0.00000000"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.00000000"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -168,6 +168,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -176,55 +191,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -236,18 +213,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -269,6 +262,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -276,7 +277,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,17 +290,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,13 +321,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,84 +447,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -424,84 +502,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,12 +530,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -552,15 +565,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,24 +586,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,13 +632,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -650,134 +650,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -793,7 +793,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -802,28 +802,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1145,21 +1133,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="20.1428571428571" customWidth="1"/>
-    <col min="2" max="2" width="25.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="22.2857142857143" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.7142857142857" style="4" customWidth="1"/>
-    <col min="5" max="5" width="23.7142857142857" style="4" customWidth="1"/>
-    <col min="6" max="6" width="26.7142857142857" style="5" customWidth="1"/>
-    <col min="7" max="7" width="75.4285714285714" customWidth="1"/>
+    <col min="1" max="1" width="22.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="22.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="11.2857142857143" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.5714285714286" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.7142857142857" style="4" customWidth="1"/>
+    <col min="6" max="6" width="19.7142857142857" style="5" customWidth="1"/>
+    <col min="7" max="7" width="68" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="36" customHeight="1" spans="1:7">
@@ -1192,42 +1180,42 @@
       <c r="B2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="4">
         <v>0.999509228290274</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="4">
         <v>0.723327183920764</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="4">
         <f t="shared" ref="E2:E7" si="0">2*(C2*D2)/(C2+D2)</f>
         <v>0.83928130410731</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="9"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:7">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="10">
         <v>0.979986281906177</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="10">
         <v>0.445632284432027</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="10">
         <f t="shared" si="0"/>
         <v>0.612665317118626</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="11">
         <v>1</v>
       </c>
-      <c r="G3" s="14"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
@@ -1236,13 +1224,13 @@
       <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="4">
         <v>0.809951731732081</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="4">
         <v>0.211008263100255</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="4">
         <f t="shared" si="0"/>
         <v>0.334795700072257</v>
       </c>
@@ -1266,7 +1254,7 @@
       <c r="D5" s="4">
         <v>0.32306867439169</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="4">
         <f t="shared" si="0"/>
         <v>0.459795567332858</v>
       </c>
@@ -1290,7 +1278,7 @@
       <c r="D6" s="4">
         <v>0.299641697508602</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="4">
         <f t="shared" si="0"/>
         <v>0.42802563626534</v>
       </c>
@@ -1314,7 +1302,7 @@
       <c r="D7" s="4">
         <v>0.445457436262228</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="4">
         <f t="shared" si="0"/>
         <v>0.543963026932506</v>
       </c>
@@ -1325,7 +1313,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1333,17 +1321,20 @@
         <v>21</v>
       </c>
       <c r="C8" s="4">
-        <v>0.76156888096108</v>
+        <v>0.000322268034322971</v>
       </c>
       <c r="D8" s="4">
-        <v>0.417534012062262</v>
-      </c>
-      <c r="E8" s="8">
-        <f t="shared" ref="E8:E25" si="1">2*(C8*D8)/(C8+D8)</f>
-        <v>0.53936074995815</v>
+        <v>0.497607655502392</v>
+      </c>
+      <c r="E8" s="4">
+        <f>2*(C8*D8)/(C8+D8)</f>
+        <v>0.00064411891482153</v>
       </c>
       <c r="F8" s="5">
-        <v>1.18743400211193</v>
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1351,23 +1342,23 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" s="4">
-        <v>0.000322268034322971</v>
+        <v>0.53479525305992</v>
       </c>
       <c r="D9" s="4">
-        <v>0.497607655502392</v>
-      </c>
-      <c r="E9" s="8">
-        <f t="shared" si="1"/>
-        <v>0.00064411891482153</v>
+        <v>0.194154115320793</v>
+      </c>
+      <c r="E9" s="4">
+        <f>2*(C9*D9)/(C9+D9)</f>
+        <v>0.284883158527902</v>
       </c>
       <c r="F9" s="5">
-        <v>1</v>
+        <v>1.27495517035265</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1375,149 +1366,47 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="4">
-        <v>0.53479525305992</v>
+        <v>0.220283935516962</v>
       </c>
       <c r="D10" s="4">
-        <v>0.194154115320793</v>
-      </c>
-      <c r="E10" s="8">
-        <f t="shared" si="1"/>
-        <v>0.284883158527902</v>
+        <v>0.47039481918808</v>
+      </c>
+      <c r="E10" s="4">
+        <f>2*(C10*D10)/(C10+D10)</f>
+        <v>0.300053885577505</v>
       </c>
       <c r="F10" s="5">
-        <v>1.27495517035265</v>
+        <v>1.32543299908842</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="4">
-        <v>0.220283935516962</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0.47039481918808</v>
-      </c>
-      <c r="E11" s="8">
-        <f t="shared" si="1"/>
-        <v>0.300053885577505</v>
-      </c>
-      <c r="F11" s="5">
-        <v>1.32543299908842</v>
-      </c>
-      <c r="G11" t="s">
+    </row>
+    <row r="11" s="3" customFormat="1" spans="1:7">
+      <c r="A11" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" s="3" customFormat="1" spans="1:7">
-      <c r="A12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="10" t="s">
+      <c r="B11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C11" s="10">
         <v>0.678829337909985</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D11" s="10">
         <v>0.492786511488504</v>
       </c>
-      <c r="E12" s="12">
-        <f t="shared" si="1"/>
+      <c r="E11" s="10">
+        <f>2*(C11*D11)/(C11+D11)</f>
         <v>0.571036900015402</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F11" s="11">
         <v>1.23288409703504</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G11" s="3" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="5:5">
-      <c r="E13" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="5:5">
-      <c r="E14" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="5:5">
-      <c r="E15" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="5:5">
-      <c r="E16" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="5:5">
-      <c r="E17" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="5:5">
-      <c r="E18" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="5:5">
-      <c r="E19" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="5:5">
-      <c r="E20" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="5:5">
-      <c r="E21" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="5:5">
-      <c r="E22" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="5:5">
-      <c r="E23" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="5:5">
-      <c r="E24" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="25" spans="5:5">
-      <c r="E25" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
